--- a/biology/Botanique/Tetrarrhena/Tetrarrhena.xlsx
+++ b/biology/Botanique/Tetrarrhena/Tetrarrhena.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Tetrarrhena est un genre de plantes monocotylédones de la famille des Poaceae, sous-famille des Oryzoideae,  endémique d'Australie, qui comprend six espèces[2].
-Ce sont des plantes herbacées vivaces, stolonifères, aux tiges ligneuses à herbacées, ramifiées dans leur partie supérieure. Les inflorescences sont des racèmes spiciformes comptant un faible nombre d'épillets. Les fleurons fertiles présentent deux lodicules et généralement quatre étamines (deux chez Tetrarrhena oreophila)[3].
-Le nom générique « Tetrarrhena » dérive des racines grecques  τετρα (tetra) qui signifie « quatre » et  ἄρρην (arrhên) signifiant « mâle », en référence aux quatre étamines des fleurons[3].
+Tetrarrhena est un genre de plantes monocotylédones de la famille des Poaceae, sous-famille des Oryzoideae,  endémique d'Australie, qui comprend six espèces.
+Ce sont des plantes herbacées vivaces, stolonifères, aux tiges ligneuses à herbacées, ramifiées dans leur partie supérieure. Les inflorescences sont des racèmes spiciformes comptant un faible nombre d'épillets. Les fleurons fertiles présentent deux lodicules et généralement quatre étamines (deux chez Tetrarrhena oreophila).
+Le nom générique « Tetrarrhena » dérive des racines grecques  τετρα (tetra) qui signifie « quatre » et  ἄρρην (arrhên) signifiant « mâle », en référence aux quatre étamines des fleurons.
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (28 janvier 2017)[1] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (28 janvier 2017) (Attention liste brute contenant possiblement des synonymes) :
 Tetrarrhena acuminata R. Br.
 Tetrarrhena distichophylla (Labill.) R. Br.
 Tetrarrhena drummondiana Nees
